--- a/biology/Zoologie/Dolichophis_jugularis/Dolichophis_jugularis.xlsx
+++ b/biology/Zoologie/Dolichophis_jugularis/Dolichophis_jugularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolichophis jugularis est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolichophis jugularis est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Grèce (dans les îles de la mer Égée), dans le nord de l'Irak, dans le Nord de l'Iran, en Israël, en Jordanie, au Koweït, au Liban, en Syrie et en Turquie. Elle a été signalée, bien que ces observations n'aient pas été confirmées, en Albanie, en Bulgarie, en Hongrie, en Roumanie et en Yougoslavie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Grèce (dans les îles de la mer Égée), dans le nord de l'Irak, dans le Nord de l'Iran, en Israël, en Jordanie, au Koweït, au Liban, en Syrie et en Turquie. Elle a été signalée, bien que ces observations n'aient pas été confirmées, en Albanie, en Bulgarie, en Hongrie, en Roumanie et en Yougoslavie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dolichophis jugularis mesure habituellement environ 150 cm mais peut atteindre parfois 250 cm.
 </t>
@@ -573,12 +589,14 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Dolichophis jugularis asianus (Boettger, 1880)
 Dolichophis jugularis jugularis (Linnaeus, 1758)
-Dolichophis jugularis cypriacus (Zinner, 1972) - Chypre[3]</t>
+Dolichophis jugularis cypriacus (Zinner, 1972) - Chypre</t>
         </is>
       </c>
     </row>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de cette espèce, jugularis, vient du latin jugulare, « égorger, étrangler », en référence à sa technique de chasse[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de cette espèce, jugularis, vient du latin jugulare, « égorger, étrangler », en référence à sa technique de chasse.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boettger, 1880 : Die Reptilien und Amphibien von Syrien, Palaestina und Cypern. Bericht über Senckenbergische Naturforschende Gesellschaft, vol. 1880, p. 132-219 (texte intégral).
 Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).
